--- a/biology/Biochimie/Jack_Drummond/Jack_Drummond.xlsx
+++ b/biology/Biochimie/Jack_Drummond/Jack_Drummond.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sir Jack Cecil Drummond (12 janvier 1891, Londres — 4 ou 5 août 1952, Lurs) est un biochimiste britannique qui travaille sur la nutrition appliquée à l'alimentation des rations militaires britanniques pendant la Seconde Guerre mondiale. Il est peut-être membre de l'Intelligence Service et spécialiste en armes chimiques et bactériologiques[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sir Jack Cecil Drummond (12 janvier 1891, Londres — 4 ou 5 août 1952, Lurs) est un biochimiste britannique qui travaille sur la nutrition appliquée à l'alimentation des rations militaires britanniques pendant la Seconde Guerre mondiale. Il est peut-être membre de l'Intelligence Service et spécialiste en armes chimiques et bactériologiques.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son assassinat en France, avec sa femme (Anne, une de ses élèves devenue sa secrétaire et épousée en secondes noces) et sa fille Elizabeth, est à l'origine de l'affaire Dominici.
 La famille Drummond est inhumée à quelques kilomètres du drame, dans le cimetière de Forcalquier.
